--- a/Streamlit_test/Results/Fechas_modelos.xlsx
+++ b/Streamlit_test/Results/Fechas_modelos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C636"/>
+  <dimension ref="A1:C637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,176 +457,176 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>frt38355</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43983</v>
+        <v>44197</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44166</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>frt38868</t>
+          <t>frt18903</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44166</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>frt38353</t>
+          <t>frt01143</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44166</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>frt38357</t>
+          <t>frt30268</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44166</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>frt38358</t>
+          <t>frt05216</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44166</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>frt38606</t>
+          <t>frt27808</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44166</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>frt38602</t>
+          <t>frt35730</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44166</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>frt38620</t>
+          <t>frt34902</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44166</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>frt38604</t>
+          <t>frt07115</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44166</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>frt38605</t>
+          <t>frt39574</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44166</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>frt38623</t>
+          <t>frt39672</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44166</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>frt38624</t>
+          <t>frt28750</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44166</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>frt38625</t>
+          <t>frt10142</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44166</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>frt38626</t>
+          <t>frt38355</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -639,7 +639,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>frt38627</t>
+          <t>frt38868</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -652,7 +652,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>frt38628</t>
+          <t>frt38353</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -665,7 +665,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>frt38607</t>
+          <t>frt38357</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -678,7 +678,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>frt38678</t>
+          <t>frt38358</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -691,7 +691,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>frt38629</t>
+          <t>frt38606</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -704,7 +704,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>frt38593</t>
+          <t>frt38602</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -717,7 +717,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>frt38718</t>
+          <t>frt38620</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -730,7 +730,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>frt39145</t>
+          <t>frt38604</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -743,7 +743,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>frt39474</t>
+          <t>frt38605</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -756,7 +756,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>frt39737</t>
+          <t>frt38623</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -769,7 +769,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>frt39672</t>
+          <t>frt38624</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -782,7 +782,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>frt39574</t>
+          <t>frt38625</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -795,7 +795,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>frt40020</t>
+          <t>frt38626</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -808,7 +808,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>frt40019</t>
+          <t>frt38627</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -821,7 +821,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>frt40014</t>
+          <t>frt38628</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -834,7 +834,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>frt39898</t>
+          <t>frt38607</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -847,7 +847,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>frt40038</t>
+          <t>frt38678</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -860,7 +860,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>frt30344</t>
+          <t>frt38629</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -873,7 +873,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>frt32629</t>
+          <t>frt38593</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -886,7 +886,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>frt31923</t>
+          <t>frt38718</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -899,7 +899,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>frt23113</t>
+          <t>frt39145</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -912,7 +912,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>frt23105</t>
+          <t>frt39474</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -925,7 +925,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>frt30348</t>
+          <t>frt39737</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -938,7 +938,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>frt11299</t>
+          <t>frt40020</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -951,7 +951,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>frt29166</t>
+          <t>frt40019</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -964,7 +964,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>frt26527</t>
+          <t>frt40014</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -977,7 +977,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>frt08544</t>
+          <t>frt39898</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -990,7 +990,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>frt05135</t>
+          <t>frt40038</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -1003,7 +1003,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>frt12268</t>
+          <t>frt30344</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -1016,7 +1016,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>frt33240</t>
+          <t>frt32629</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -1029,7 +1029,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>frt06825</t>
+          <t>frt31923</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
@@ -1042,7 +1042,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>frt01099</t>
+          <t>frt23113</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
@@ -1055,7 +1055,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>frt28270</t>
+          <t>frt23105</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -1068,7 +1068,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>frt08382</t>
+          <t>frt30348</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -1081,7 +1081,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>frt30897</t>
+          <t>frt11299</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
@@ -1094,7 +1094,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>frt30899</t>
+          <t>frt29166</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -1107,7 +1107,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>frt33568</t>
+          <t>frt26527</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
@@ -1120,7 +1120,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>frt33567</t>
+          <t>frt08544</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
@@ -1133,7 +1133,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>frt30905</t>
+          <t>frt05135</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
@@ -1146,7 +1146,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>frt32781</t>
+          <t>frt12268</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
@@ -1159,7 +1159,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>frt30889</t>
+          <t>frt33240</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
@@ -1172,7 +1172,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>frt01143</t>
+          <t>frt06825</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
@@ -1185,7 +1185,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>frt20837</t>
+          <t>frt01099</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
@@ -1198,7 +1198,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>frt11523</t>
+          <t>frt28270</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
@@ -1211,7 +1211,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>frt23139</t>
+          <t>frt08382</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
@@ -1224,7 +1224,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>frt19095</t>
+          <t>frt30897</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
@@ -1237,7 +1237,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>frt22468</t>
+          <t>frt30899</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
@@ -1250,7 +1250,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>frt28586</t>
+          <t>frt33568</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
@@ -1263,7 +1263,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>frt28853</t>
+          <t>frt33567</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
@@ -1276,7 +1276,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>frt09101</t>
+          <t>frt30905</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
@@ -1289,7 +1289,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>frt05873</t>
+          <t>frt32781</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
@@ -1302,7 +1302,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>frt24790</t>
+          <t>frt30889</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
@@ -1315,7 +1315,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>frt04832</t>
+          <t>frt20837</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
@@ -1328,7 +1328,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>frt26707</t>
+          <t>frt11523</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
@@ -1341,7 +1341,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>frt26735</t>
+          <t>frt23139</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
@@ -1354,7 +1354,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>frt11420</t>
+          <t>frt19095</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
@@ -1367,7 +1367,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>frt10074</t>
+          <t>frt22468</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
@@ -1380,7 +1380,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>frt11289</t>
+          <t>frt28586</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
@@ -1393,7 +1393,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>frt11288</t>
+          <t>frt28853</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
@@ -1406,7 +1406,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>frt19370</t>
+          <t>frt09101</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
@@ -1419,7 +1419,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>frt23112</t>
+          <t>frt05873</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
@@ -1432,7 +1432,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>frt08413</t>
+          <t>frt24790</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
@@ -1445,7 +1445,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>frt30896</t>
+          <t>frt04832</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
@@ -1458,7 +1458,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>frt24473</t>
+          <t>frt26707</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
@@ -1471,7 +1471,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>frt03427</t>
+          <t>frt26735</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
@@ -1484,7 +1484,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>frt07511</t>
+          <t>frt11420</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
@@ -1497,7 +1497,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>frt29155</t>
+          <t>frt10074</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
@@ -1510,7 +1510,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>frt33131</t>
+          <t>frt11289</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
@@ -1523,7 +1523,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>frt30886</t>
+          <t>frt11288</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
@@ -1536,7 +1536,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>frt08797</t>
+          <t>frt19370</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
@@ -1549,7 +1549,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>frt24791</t>
+          <t>frt23112</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
@@ -1562,7 +1562,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>frt05602</t>
+          <t>frt08413</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
@@ -1575,7 +1575,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>frt06649</t>
+          <t>frt30896</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
@@ -1588,7 +1588,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>frt05982</t>
+          <t>frt24473</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
@@ -1601,7 +1601,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>frt06155</t>
+          <t>frt03427</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
@@ -1614,7 +1614,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>frt06608</t>
+          <t>frt07511</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
@@ -1627,7 +1627,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>frt30893</t>
+          <t>frt29155</t>
         </is>
       </c>
       <c r="B92" s="2" t="n">
@@ -1640,7 +1640,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>frt07219</t>
+          <t>frt33131</t>
         </is>
       </c>
       <c r="B93" s="2" t="n">
@@ -1653,7 +1653,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>frt05509</t>
+          <t>frt30886</t>
         </is>
       </c>
       <c r="B94" s="2" t="n">
@@ -1666,7 +1666,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>frt07018</t>
+          <t>frt08797</t>
         </is>
       </c>
       <c r="B95" s="2" t="n">
@@ -1679,7 +1679,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>frt06920</t>
+          <t>frt24791</t>
         </is>
       </c>
       <c r="B96" s="2" t="n">
@@ -1692,7 +1692,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>frt06463</t>
+          <t>frt05602</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
@@ -1705,7 +1705,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>frt11738</t>
+          <t>frt06649</t>
         </is>
       </c>
       <c r="B98" s="2" t="n">
@@ -1718,7 +1718,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>frt04534</t>
+          <t>frt05982</t>
         </is>
       </c>
       <c r="B99" s="2" t="n">
@@ -1731,7 +1731,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>frt29507</t>
+          <t>frt06155</t>
         </is>
       </c>
       <c r="B100" s="2" t="n">
@@ -1744,7 +1744,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>frt25881</t>
+          <t>frt06608</t>
         </is>
       </c>
       <c r="B101" s="2" t="n">
@@ -1757,7 +1757,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>frt26488</t>
+          <t>frt30893</t>
         </is>
       </c>
       <c r="B102" s="2" t="n">
@@ -1770,7 +1770,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>frt32076</t>
+          <t>frt07219</t>
         </is>
       </c>
       <c r="B103" s="2" t="n">
@@ -1783,7 +1783,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>frt33566</t>
+          <t>frt05509</t>
         </is>
       </c>
       <c r="B104" s="2" t="n">
@@ -1796,7 +1796,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>frt23121</t>
+          <t>frt07018</t>
         </is>
       </c>
       <c r="B105" s="2" t="n">
@@ -1809,7 +1809,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>frt29726</t>
+          <t>frt06920</t>
         </is>
       </c>
       <c r="B106" s="2" t="n">
@@ -1822,7 +1822,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>frt35714</t>
+          <t>frt06463</t>
         </is>
       </c>
       <c r="B107" s="2" t="n">
@@ -1835,7 +1835,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>frt18681</t>
+          <t>frt11738</t>
         </is>
       </c>
       <c r="B108" s="2" t="n">
@@ -1848,7 +1848,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>frt08592</t>
+          <t>frt04534</t>
         </is>
       </c>
       <c r="B109" s="2" t="n">
@@ -1861,7 +1861,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>frt05102</t>
+          <t>frt29507</t>
         </is>
       </c>
       <c r="B110" s="2" t="n">
@@ -1874,7 +1874,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>frt10185</t>
+          <t>frt25881</t>
         </is>
       </c>
       <c r="B111" s="2" t="n">
@@ -1887,7 +1887,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>frt07112</t>
+          <t>frt26488</t>
         </is>
       </c>
       <c r="B112" s="2" t="n">
@@ -1900,7 +1900,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>frt22094</t>
+          <t>frt32076</t>
         </is>
       </c>
       <c r="B113" s="2" t="n">
@@ -1913,7 +1913,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>frt10217</t>
+          <t>frt33566</t>
         </is>
       </c>
       <c r="B114" s="2" t="n">
@@ -1926,7 +1926,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>frt22844</t>
+          <t>frt23121</t>
         </is>
       </c>
       <c r="B115" s="2" t="n">
@@ -1939,7 +1939,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>frt24094</t>
+          <t>frt29726</t>
         </is>
       </c>
       <c r="B116" s="2" t="n">
@@ -1952,7 +1952,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>frt11291</t>
+          <t>frt35714</t>
         </is>
       </c>
       <c r="B117" s="2" t="n">
@@ -1965,7 +1965,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>frt07095</t>
+          <t>frt18681</t>
         </is>
       </c>
       <c r="B118" s="2" t="n">
@@ -1978,7 +1978,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>frt34731</t>
+          <t>frt08592</t>
         </is>
       </c>
       <c r="B119" s="2" t="n">
@@ -1991,7 +1991,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>frt11448</t>
+          <t>frt05102</t>
         </is>
       </c>
       <c r="B120" s="2" t="n">
@@ -2004,7 +2004,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>frt20715</t>
+          <t>frt10185</t>
         </is>
       </c>
       <c r="B121" s="2" t="n">
@@ -2017,7 +2017,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>frt20945</t>
+          <t>frt07112</t>
         </is>
       </c>
       <c r="B122" s="2" t="n">
@@ -2030,7 +2030,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>frt35643</t>
+          <t>frt22094</t>
         </is>
       </c>
       <c r="B123" s="2" t="n">
@@ -2043,7 +2043,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>frt34728</t>
+          <t>frt10217</t>
         </is>
       </c>
       <c r="B124" s="2" t="n">
@@ -2056,7 +2056,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>frt34732</t>
+          <t>frt22844</t>
         </is>
       </c>
       <c r="B125" s="2" t="n">
@@ -2069,7 +2069,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>frt34725</t>
+          <t>frt24094</t>
         </is>
       </c>
       <c r="B126" s="2" t="n">
@@ -2082,7 +2082,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>frt35380</t>
+          <t>frt11291</t>
         </is>
       </c>
       <c r="B127" s="2" t="n">
@@ -2095,7 +2095,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>frt34734</t>
+          <t>frt07095</t>
         </is>
       </c>
       <c r="B128" s="2" t="n">
@@ -2108,7 +2108,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>frt35381</t>
+          <t>frt34731</t>
         </is>
       </c>
       <c r="B129" s="2" t="n">
@@ -2121,7 +2121,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>frt34729</t>
+          <t>frt11448</t>
         </is>
       </c>
       <c r="B130" s="2" t="n">
@@ -2134,7 +2134,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>frt34888</t>
+          <t>frt20715</t>
         </is>
       </c>
       <c r="B131" s="2" t="n">
@@ -2147,7 +2147,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>frt34911</t>
+          <t>frt20945</t>
         </is>
       </c>
       <c r="B132" s="2" t="n">
@@ -2160,7 +2160,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>frt35379</t>
+          <t>frt35643</t>
         </is>
       </c>
       <c r="B133" s="2" t="n">
@@ -2173,7 +2173,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>frt20248</t>
+          <t>frt34728</t>
         </is>
       </c>
       <c r="B134" s="2" t="n">
@@ -2186,7 +2186,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>frt35642</t>
+          <t>frt34732</t>
         </is>
       </c>
       <c r="B135" s="2" t="n">
@@ -2199,7 +2199,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>frt36675</t>
+          <t>frt34725</t>
         </is>
       </c>
       <c r="B136" s="2" t="n">
@@ -2212,7 +2212,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>frt29317</t>
+          <t>frt35380</t>
         </is>
       </c>
       <c r="B137" s="2" t="n">
@@ -2225,7 +2225,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>frt29330</t>
+          <t>frt34734</t>
         </is>
       </c>
       <c r="B138" s="2" t="n">
@@ -2238,7 +2238,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>frt26526</t>
+          <t>frt35381</t>
         </is>
       </c>
       <c r="B139" s="2" t="n">
@@ -2251,7 +2251,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>frt05187</t>
+          <t>frt34729</t>
         </is>
       </c>
       <c r="B140" s="2" t="n">
@@ -2264,7 +2264,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>frt31964</t>
+          <t>frt34888</t>
         </is>
       </c>
       <c r="B141" s="2" t="n">
@@ -2277,7 +2277,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>frt32853</t>
+          <t>frt34911</t>
         </is>
       </c>
       <c r="B142" s="2" t="n">
@@ -2290,7 +2290,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>frt32796</t>
+          <t>frt35379</t>
         </is>
       </c>
       <c r="B143" s="2" t="n">
@@ -2303,7 +2303,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>frt30830</t>
+          <t>frt20248</t>
         </is>
       </c>
       <c r="B144" s="2" t="n">
@@ -2316,7 +2316,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>frt30832</t>
+          <t>frt35642</t>
         </is>
       </c>
       <c r="B145" s="2" t="n">
@@ -2329,7 +2329,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>frt30831</t>
+          <t>frt36675</t>
         </is>
       </c>
       <c r="B146" s="2" t="n">
@@ -2342,7 +2342,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>frt04773</t>
+          <t>frt29317</t>
         </is>
       </c>
       <c r="B147" s="2" t="n">
@@ -2355,7 +2355,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>frt35676</t>
+          <t>frt29330</t>
         </is>
       </c>
       <c r="B148" s="2" t="n">
@@ -2368,7 +2368,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>frt35712</t>
+          <t>frt26526</t>
         </is>
       </c>
       <c r="B149" s="2" t="n">
@@ -2381,7 +2381,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>frt35672</t>
+          <t>frt05187</t>
         </is>
       </c>
       <c r="B150" s="2" t="n">
@@ -2394,7 +2394,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>frt35710</t>
+          <t>frt31964</t>
         </is>
       </c>
       <c r="B151" s="2" t="n">
@@ -2407,7 +2407,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>frt35724</t>
+          <t>frt32853</t>
         </is>
       </c>
       <c r="B152" s="2" t="n">
@@ -2420,7 +2420,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>frt35711</t>
+          <t>frt32796</t>
         </is>
       </c>
       <c r="B153" s="2" t="n">
@@ -2433,7 +2433,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>frt35709</t>
+          <t>frt30830</t>
         </is>
       </c>
       <c r="B154" s="2" t="n">
@@ -2446,7 +2446,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>frt35674</t>
+          <t>frt30832</t>
         </is>
       </c>
       <c r="B155" s="2" t="n">
@@ -2459,7 +2459,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>frt05601</t>
+          <t>frt30831</t>
         </is>
       </c>
       <c r="B156" s="2" t="n">
@@ -2472,7 +2472,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>frt11418</t>
+          <t>frt04773</t>
         </is>
       </c>
       <c r="B157" s="2" t="n">
@@ -2485,7 +2485,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>frt10116</t>
+          <t>frt35676</t>
         </is>
       </c>
       <c r="B158" s="2" t="n">
@@ -2498,7 +2498,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>frt06672</t>
+          <t>frt35712</t>
         </is>
       </c>
       <c r="B159" s="2" t="n">
@@ -2511,7 +2511,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>frt10115</t>
+          <t>frt35672</t>
         </is>
       </c>
       <c r="B160" s="2" t="n">
@@ -2524,7 +2524,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>frt07235</t>
+          <t>frt35710</t>
         </is>
       </c>
       <c r="B161" s="2" t="n">
@@ -2537,7 +2537,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>frt02443</t>
+          <t>frt35724</t>
         </is>
       </c>
       <c r="B162" s="2" t="n">
@@ -2550,7 +2550,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>frt02444</t>
+          <t>frt35711</t>
         </is>
       </c>
       <c r="B163" s="2" t="n">
@@ -2563,7 +2563,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>frt02455</t>
+          <t>frt35709</t>
         </is>
       </c>
       <c r="B164" s="2" t="n">
@@ -2576,7 +2576,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>frt07940</t>
+          <t>frt35674</t>
         </is>
       </c>
       <c r="B165" s="2" t="n">
@@ -2589,7 +2589,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>frt18864</t>
+          <t>frt05601</t>
         </is>
       </c>
       <c r="B166" s="2" t="n">
@@ -2602,7 +2602,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>frt05266</t>
+          <t>frt11418</t>
         </is>
       </c>
       <c r="B167" s="2" t="n">
@@ -2615,7 +2615,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>frt28418</t>
+          <t>frt10116</t>
         </is>
       </c>
       <c r="B168" s="2" t="n">
@@ -2628,7 +2628,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>frt06161</t>
+          <t>frt06672</t>
         </is>
       </c>
       <c r="B169" s="2" t="n">
@@ -2641,7 +2641,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>frt05546</t>
+          <t>frt10115</t>
         </is>
       </c>
       <c r="B170" s="2" t="n">
@@ -2654,7 +2654,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>frt29114</t>
+          <t>frt07235</t>
         </is>
       </c>
       <c r="B171" s="2" t="n">
@@ -2667,7 +2667,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>frt36081</t>
+          <t>frt02443</t>
         </is>
       </c>
       <c r="B172" s="2" t="n">
@@ -2680,7 +2680,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>frt36082</t>
+          <t>frt02444</t>
         </is>
       </c>
       <c r="B173" s="2" t="n">
@@ -2693,7 +2693,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>frt36079</t>
+          <t>frt02455</t>
         </is>
       </c>
       <c r="B174" s="2" t="n">
@@ -2706,7 +2706,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>frt36080</t>
+          <t>frt07940</t>
         </is>
       </c>
       <c r="B175" s="2" t="n">
@@ -2719,7 +2719,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>frt36370</t>
+          <t>frt18864</t>
         </is>
       </c>
       <c r="B176" s="2" t="n">
@@ -2732,7 +2732,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>frt36374</t>
+          <t>frt05266</t>
         </is>
       </c>
       <c r="B177" s="2" t="n">
@@ -2745,7 +2745,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>frt36368</t>
+          <t>frt28418</t>
         </is>
       </c>
       <c r="B178" s="2" t="n">
@@ -2758,7 +2758,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>frt36367</t>
+          <t>frt06161</t>
         </is>
       </c>
       <c r="B179" s="2" t="n">
@@ -2771,7 +2771,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>frt24795</t>
+          <t>frt05546</t>
         </is>
       </c>
       <c r="B180" s="2" t="n">
@@ -2784,7 +2784,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>frt36986</t>
+          <t>frt29114</t>
         </is>
       </c>
       <c r="B181" s="2" t="n">
@@ -2797,7 +2797,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>frt36858</t>
+          <t>frt36081</t>
         </is>
       </c>
       <c r="B182" s="2" t="n">
@@ -2810,7 +2810,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>frt36987</t>
+          <t>frt36082</t>
         </is>
       </c>
       <c r="B183" s="2" t="n">
@@ -2823,7 +2823,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>frt18903</t>
+          <t>frt36079</t>
         </is>
       </c>
       <c r="B184" s="2" t="n">
@@ -2836,7 +2836,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>frt30894</t>
+          <t>frt36080</t>
         </is>
       </c>
       <c r="B185" s="2" t="n">
@@ -2849,7 +2849,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>frt28750</t>
+          <t>frt36370</t>
         </is>
       </c>
       <c r="B186" s="2" t="n">
@@ -2862,7 +2862,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>frt06047</t>
+          <t>frt36374</t>
         </is>
       </c>
       <c r="B187" s="2" t="n">
@@ -2875,7 +2875,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>frt07102</t>
+          <t>frt36368</t>
         </is>
       </c>
       <c r="B188" s="2" t="n">
@@ -2888,7 +2888,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>frt05213</t>
+          <t>frt36367</t>
         </is>
       </c>
       <c r="B189" s="2" t="n">
@@ -2901,7 +2901,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>frt23101</t>
+          <t>frt24795</t>
         </is>
       </c>
       <c r="B190" s="2" t="n">
@@ -2914,7 +2914,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>frt07895</t>
+          <t>frt36986</t>
         </is>
       </c>
       <c r="B191" s="2" t="n">
@@ -2927,7 +2927,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>frt07053</t>
+          <t>frt36858</t>
         </is>
       </c>
       <c r="B192" s="2" t="n">
@@ -2940,7 +2940,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>frt11657</t>
+          <t>frt36987</t>
         </is>
       </c>
       <c r="B193" s="2" t="n">
@@ -2953,7 +2953,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>frt37464</t>
+          <t>frt30894</t>
         </is>
       </c>
       <c r="B194" s="2" t="n">
@@ -2966,7 +2966,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>frt37455</t>
+          <t>frt06047</t>
         </is>
       </c>
       <c r="B195" s="2" t="n">
@@ -2979,7 +2979,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>frt37160</t>
+          <t>frt07102</t>
         </is>
       </c>
       <c r="B196" s="2" t="n">
@@ -2992,7 +2992,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>frt37639</t>
+          <t>frt05213</t>
         </is>
       </c>
       <c r="B197" s="2" t="n">
@@ -3005,7 +3005,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>frt37162</t>
+          <t>frt23101</t>
         </is>
       </c>
       <c r="B198" s="2" t="n">
@@ -3018,7 +3018,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>frt37163</t>
+          <t>frt07895</t>
         </is>
       </c>
       <c r="B199" s="2" t="n">
@@ -3031,7 +3031,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>frt34702</t>
+          <t>frt07053</t>
         </is>
       </c>
       <c r="B200" s="2" t="n">
@@ -3044,7 +3044,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>frt34704</t>
+          <t>frt11657</t>
         </is>
       </c>
       <c r="B201" s="2" t="n">
@@ -3057,7 +3057,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>frt34710</t>
+          <t>frt37464</t>
         </is>
       </c>
       <c r="B202" s="2" t="n">
@@ -3070,7 +3070,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>frt34711</t>
+          <t>frt37455</t>
         </is>
       </c>
       <c r="B203" s="2" t="n">
@@ -3083,7 +3083,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>frt34712</t>
+          <t>frt37160</t>
         </is>
       </c>
       <c r="B204" s="2" t="n">
@@ -3096,7 +3096,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>frt34716</t>
+          <t>frt37639</t>
         </is>
       </c>
       <c r="B205" s="2" t="n">
@@ -3109,7 +3109,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>frt34717</t>
+          <t>frt37162</t>
         </is>
       </c>
       <c r="B206" s="2" t="n">
@@ -3122,7 +3122,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>frt34718</t>
+          <t>frt37163</t>
         </is>
       </c>
       <c r="B207" s="2" t="n">
@@ -3135,7 +3135,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>frt34664</t>
+          <t>frt34702</t>
         </is>
       </c>
       <c r="B208" s="2" t="n">
@@ -3148,7 +3148,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>frt34666</t>
+          <t>frt34704</t>
         </is>
       </c>
       <c r="B209" s="2" t="n">
@@ -3161,7 +3161,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>frt34669</t>
+          <t>frt34710</t>
         </is>
       </c>
       <c r="B210" s="2" t="n">
@@ -3174,7 +3174,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>frt34760</t>
+          <t>frt34711</t>
         </is>
       </c>
       <c r="B211" s="2" t="n">
@@ -3187,7 +3187,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>frt34790</t>
+          <t>frt34712</t>
         </is>
       </c>
       <c r="B212" s="2" t="n">
@@ -3200,7 +3200,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>frt34757</t>
+          <t>frt34716</t>
         </is>
       </c>
       <c r="B213" s="2" t="n">
@@ -3213,7 +3213,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>frt34754</t>
+          <t>frt34717</t>
         </is>
       </c>
       <c r="B214" s="2" t="n">
@@ -3226,7 +3226,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>frt34751</t>
+          <t>frt34718</t>
         </is>
       </c>
       <c r="B215" s="2" t="n">
@@ -3239,7 +3239,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>frt34750</t>
+          <t>frt34664</t>
         </is>
       </c>
       <c r="B216" s="2" t="n">
@@ -3252,7 +3252,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>frt34748</t>
+          <t>frt34666</t>
         </is>
       </c>
       <c r="B217" s="2" t="n">
@@ -3265,7 +3265,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>frt34878</t>
+          <t>frt34669</t>
         </is>
       </c>
       <c r="B218" s="2" t="n">
@@ -3278,7 +3278,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>frt20250</t>
+          <t>frt34760</t>
         </is>
       </c>
       <c r="B219" s="2" t="n">
@@ -3291,7 +3291,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>frt08949</t>
+          <t>frt34790</t>
         </is>
       </c>
       <c r="B220" s="2" t="n">
@@ -3304,7 +3304,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>frt08545</t>
+          <t>frt34757</t>
         </is>
       </c>
       <c r="B221" s="2" t="n">
@@ -3317,7 +3317,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>frt08576</t>
+          <t>frt34754</t>
         </is>
       </c>
       <c r="B222" s="2" t="n">
@@ -3330,7 +3330,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>frt04975</t>
+          <t>frt34751</t>
         </is>
       </c>
       <c r="B223" s="2" t="n">
@@ -3343,7 +3343,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>frt06812</t>
+          <t>frt34750</t>
         </is>
       </c>
       <c r="B224" s="2" t="n">
@@ -3356,7 +3356,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>frt05957</t>
+          <t>frt34748</t>
         </is>
       </c>
       <c r="B225" s="2" t="n">
@@ -3369,7 +3369,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>frt06866</t>
+          <t>frt34878</t>
         </is>
       </c>
       <c r="B226" s="2" t="n">
@@ -3382,7 +3382,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>frt06903</t>
+          <t>frt20250</t>
         </is>
       </c>
       <c r="B227" s="2" t="n">
@@ -3395,7 +3395,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>frt06714</t>
+          <t>frt08949</t>
         </is>
       </c>
       <c r="B228" s="2" t="n">
@@ -3408,7 +3408,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>frt34612</t>
+          <t>frt08545</t>
         </is>
       </c>
       <c r="B229" s="2" t="n">
@@ -3421,7 +3421,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>frt34611</t>
+          <t>frt08576</t>
         </is>
       </c>
       <c r="B230" s="2" t="n">
@@ -3434,7 +3434,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>frt34609</t>
+          <t>frt04975</t>
         </is>
       </c>
       <c r="B231" s="2" t="n">
@@ -3447,7 +3447,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>frt34606</t>
+          <t>frt06812</t>
         </is>
       </c>
       <c r="B232" s="2" t="n">
@@ -3460,7 +3460,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>frt34603</t>
+          <t>frt05957</t>
         </is>
       </c>
       <c r="B233" s="2" t="n">
@@ -3473,7 +3473,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>frt34602</t>
+          <t>frt06866</t>
         </is>
       </c>
       <c r="B234" s="2" t="n">
@@ -3486,7 +3486,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>frt34601</t>
+          <t>frt06903</t>
         </is>
       </c>
       <c r="B235" s="2" t="n">
@@ -3499,7 +3499,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>frt34600</t>
+          <t>frt06714</t>
         </is>
       </c>
       <c r="B236" s="2" t="n">
@@ -3512,7 +3512,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>frt34686</t>
+          <t>frt34612</t>
         </is>
       </c>
       <c r="B237" s="2" t="n">
@@ -3525,7 +3525,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>frt34599</t>
+          <t>frt34611</t>
         </is>
       </c>
       <c r="B238" s="2" t="n">
@@ -3538,7 +3538,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>frt34598</t>
+          <t>frt34609</t>
         </is>
       </c>
       <c r="B239" s="2" t="n">
@@ -3551,7 +3551,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>frt34687</t>
+          <t>frt34606</t>
         </is>
       </c>
       <c r="B240" s="2" t="n">
@@ -3564,7 +3564,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>frt34690</t>
+          <t>frt34603</t>
         </is>
       </c>
       <c r="B241" s="2" t="n">
@@ -3577,7 +3577,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>frt34691</t>
+          <t>frt34602</t>
         </is>
       </c>
       <c r="B242" s="2" t="n">
@@ -3590,7 +3590,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>frt34693</t>
+          <t>frt34601</t>
         </is>
       </c>
       <c r="B243" s="2" t="n">
@@ -3603,7 +3603,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>frt34695</t>
+          <t>frt34600</t>
         </is>
       </c>
       <c r="B244" s="2" t="n">
@@ -3616,7 +3616,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>frt34575</t>
+          <t>frt34686</t>
         </is>
       </c>
       <c r="B245" s="2" t="n">
@@ -3629,7 +3629,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>frt34570</t>
+          <t>frt34599</t>
         </is>
       </c>
       <c r="B246" s="2" t="n">
@@ -3642,7 +3642,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>frt34581</t>
+          <t>frt34598</t>
         </is>
       </c>
       <c r="B247" s="2" t="n">
@@ -3655,7 +3655,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>frt34566</t>
+          <t>frt34687</t>
         </is>
       </c>
       <c r="B248" s="2" t="n">
@@ -3668,7 +3668,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>frt34562</t>
+          <t>frt34690</t>
         </is>
       </c>
       <c r="B249" s="2" t="n">
@@ -3681,7 +3681,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>frt34654</t>
+          <t>frt34691</t>
         </is>
       </c>
       <c r="B250" s="2" t="n">
@@ -3694,7 +3694,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>frt34649</t>
+          <t>frt34693</t>
         </is>
       </c>
       <c r="B251" s="2" t="n">
@@ -3707,7 +3707,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>frt34648</t>
+          <t>frt34695</t>
         </is>
       </c>
       <c r="B252" s="2" t="n">
@@ -3720,7 +3720,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>frt34647</t>
+          <t>frt34575</t>
         </is>
       </c>
       <c r="B253" s="2" t="n">
@@ -3733,7 +3733,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>frt34646</t>
+          <t>frt34570</t>
         </is>
       </c>
       <c r="B254" s="2" t="n">
@@ -3746,7 +3746,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>frt34645</t>
+          <t>frt34581</t>
         </is>
       </c>
       <c r="B255" s="2" t="n">
@@ -3759,7 +3759,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>frt34643</t>
+          <t>frt34566</t>
         </is>
       </c>
       <c r="B256" s="2" t="n">
@@ -3772,7 +3772,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>frt34642</t>
+          <t>frt34562</t>
         </is>
       </c>
       <c r="B257" s="2" t="n">
@@ -3785,7 +3785,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>frt34631</t>
+          <t>frt34654</t>
         </is>
       </c>
       <c r="B258" s="2" t="n">
@@ -3798,7 +3798,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>frt34622</t>
+          <t>frt34649</t>
         </is>
       </c>
       <c r="B259" s="2" t="n">
@@ -3811,7 +3811,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>frt34621</t>
+          <t>frt34648</t>
         </is>
       </c>
       <c r="B260" s="2" t="n">
@@ -3824,7 +3824,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>frt34626</t>
+          <t>frt34647</t>
         </is>
       </c>
       <c r="B261" s="2" t="n">
@@ -3837,7 +3837,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>frt34625</t>
+          <t>frt34646</t>
         </is>
       </c>
       <c r="B262" s="2" t="n">
@@ -3850,7 +3850,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>frt34623</t>
+          <t>frt34645</t>
         </is>
       </c>
       <c r="B263" s="2" t="n">
@@ -3863,7 +3863,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>frt34619</t>
+          <t>frt34643</t>
         </is>
       </c>
       <c r="B264" s="2" t="n">
@@ -3876,7 +3876,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>frt34617</t>
+          <t>frt34642</t>
         </is>
       </c>
       <c r="B265" s="2" t="n">
@@ -3889,7 +3889,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>frt34616</t>
+          <t>frt34631</t>
         </is>
       </c>
       <c r="B266" s="2" t="n">
@@ -3902,7 +3902,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>frt34614</t>
+          <t>frt34622</t>
         </is>
       </c>
       <c r="B267" s="2" t="n">
@@ -3915,7 +3915,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>frt34506</t>
+          <t>frt34621</t>
         </is>
       </c>
       <c r="B268" s="2" t="n">
@@ -3928,7 +3928,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>frt34507</t>
+          <t>frt34626</t>
         </is>
       </c>
       <c r="B269" s="2" t="n">
@@ -3941,7 +3941,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>frt34508</t>
+          <t>frt34625</t>
         </is>
       </c>
       <c r="B270" s="2" t="n">
@@ -3954,7 +3954,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>frt34509</t>
+          <t>frt34623</t>
         </is>
       </c>
       <c r="B271" s="2" t="n">
@@ -3967,7 +3967,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>frt34510</t>
+          <t>frt34619</t>
         </is>
       </c>
       <c r="B272" s="2" t="n">
@@ -3980,7 +3980,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>frt34511</t>
+          <t>frt34617</t>
         </is>
       </c>
       <c r="B273" s="2" t="n">
@@ -3993,7 +3993,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>frt34517</t>
+          <t>frt34616</t>
         </is>
       </c>
       <c r="B274" s="2" t="n">
@@ -4006,7 +4006,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>frt34518</t>
+          <t>frt34614</t>
         </is>
       </c>
       <c r="B275" s="2" t="n">
@@ -4019,7 +4019,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>frt34519</t>
+          <t>frt34506</t>
         </is>
       </c>
       <c r="B276" s="2" t="n">
@@ -4032,7 +4032,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>frt34502</t>
+          <t>frt34507</t>
         </is>
       </c>
       <c r="B277" s="2" t="n">
@@ -4045,7 +4045,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>frt34499</t>
+          <t>frt34508</t>
         </is>
       </c>
       <c r="B278" s="2" t="n">
@@ -4058,7 +4058,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>frt34493</t>
+          <t>frt34509</t>
         </is>
       </c>
       <c r="B279" s="2" t="n">
@@ -4071,7 +4071,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>frt34491</t>
+          <t>frt34510</t>
         </is>
       </c>
       <c r="B280" s="2" t="n">
@@ -4084,7 +4084,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>frt34489</t>
+          <t>frt34511</t>
         </is>
       </c>
       <c r="B281" s="2" t="n">
@@ -4097,7 +4097,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>frt34556</t>
+          <t>frt34517</t>
         </is>
       </c>
       <c r="B282" s="2" t="n">
@@ -4110,7 +4110,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>frt34559</t>
+          <t>frt34518</t>
         </is>
       </c>
       <c r="B283" s="2" t="n">
@@ -4123,7 +4123,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>frt34563</t>
+          <t>frt34519</t>
         </is>
       </c>
       <c r="B284" s="2" t="n">
@@ -4136,7 +4136,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>frt34565</t>
+          <t>frt34502</t>
         </is>
       </c>
       <c r="B285" s="2" t="n">
@@ -4149,7 +4149,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>frt34572</t>
+          <t>frt34499</t>
         </is>
       </c>
       <c r="B286" s="2" t="n">
@@ -4162,7 +4162,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>frt34573</t>
+          <t>frt34493</t>
         </is>
       </c>
       <c r="B287" s="2" t="n">
@@ -4175,7 +4175,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>frt34578</t>
+          <t>frt34491</t>
         </is>
       </c>
       <c r="B288" s="2" t="n">
@@ -4188,7 +4188,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>frt34579</t>
+          <t>frt34489</t>
         </is>
       </c>
       <c r="B289" s="2" t="n">
@@ -4201,7 +4201,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>frt34630</t>
+          <t>frt34556</t>
         </is>
       </c>
       <c r="B290" s="2" t="n">
@@ -4214,7 +4214,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>frt34697</t>
+          <t>frt34559</t>
         </is>
       </c>
       <c r="B291" s="2" t="n">
@@ -4227,7 +4227,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>frt34696</t>
+          <t>frt34563</t>
         </is>
       </c>
       <c r="B292" s="2" t="n">
@@ -4240,7 +4240,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>frt06713</t>
+          <t>frt34565</t>
         </is>
       </c>
       <c r="B293" s="2" t="n">
@@ -4253,7 +4253,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>frt23118</t>
+          <t>frt34572</t>
         </is>
       </c>
       <c r="B294" s="2" t="n">
@@ -4266,7 +4266,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>frt23122</t>
+          <t>frt34573</t>
         </is>
       </c>
       <c r="B295" s="2" t="n">
@@ -4279,7 +4279,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>frt10101</t>
+          <t>frt34578</t>
         </is>
       </c>
       <c r="B296" s="2" t="n">
@@ -4292,7 +4292,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>frt10142</t>
+          <t>frt34579</t>
         </is>
       </c>
       <c r="B297" s="2" t="n">
@@ -4305,7 +4305,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>frt34902</t>
+          <t>frt34630</t>
         </is>
       </c>
       <c r="B298" s="2" t="n">
@@ -4318,7 +4318,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>frt28187</t>
+          <t>frt34697</t>
         </is>
       </c>
       <c r="B299" s="2" t="n">
@@ -4331,7 +4331,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>frt28186</t>
+          <t>frt34696</t>
         </is>
       </c>
       <c r="B300" s="2" t="n">
@@ -4344,7 +4344,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>frt28185</t>
+          <t>frt06713</t>
         </is>
       </c>
       <c r="B301" s="2" t="n">
@@ -4357,7 +4357,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>frt28169</t>
+          <t>frt23118</t>
         </is>
       </c>
       <c r="B302" s="2" t="n">
@@ -4370,7 +4370,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>frt28170</t>
+          <t>frt23122</t>
         </is>
       </c>
       <c r="B303" s="2" t="n">
@@ -4383,7 +4383,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>frt06678</t>
+          <t>frt10101</t>
         </is>
       </c>
       <c r="B304" s="2" t="n">
@@ -4396,7 +4396,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>frt25923</t>
+          <t>frt28187</t>
         </is>
       </c>
       <c r="B305" s="2" t="n">
@@ -4409,7 +4409,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>frt25896</t>
+          <t>frt28186</t>
         </is>
       </c>
       <c r="B306" s="2" t="n">
@@ -4422,7 +4422,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>frt25922</t>
+          <t>frt28185</t>
         </is>
       </c>
       <c r="B307" s="2" t="n">
@@ -4435,7 +4435,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>frt25920</t>
+          <t>frt28169</t>
         </is>
       </c>
       <c r="B308" s="2" t="n">
@@ -4448,7 +4448,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>frt25895</t>
+          <t>frt28170</t>
         </is>
       </c>
       <c r="B309" s="2" t="n">
@@ -4461,7 +4461,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>frt25927</t>
+          <t>frt06678</t>
         </is>
       </c>
       <c r="B310" s="2" t="n">
@@ -4474,7 +4474,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>frt25893</t>
+          <t>frt25923</t>
         </is>
       </c>
       <c r="B311" s="2" t="n">
@@ -4487,7 +4487,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>frt25892</t>
+          <t>frt25896</t>
         </is>
       </c>
       <c r="B312" s="2" t="n">
@@ -4500,7 +4500,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>frt25926</t>
+          <t>frt25922</t>
         </is>
       </c>
       <c r="B313" s="2" t="n">
@@ -4513,7 +4513,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>frt25924</t>
+          <t>frt25920</t>
         </is>
       </c>
       <c r="B314" s="2" t="n">
@@ -4526,7 +4526,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>frt25925</t>
+          <t>frt25895</t>
         </is>
       </c>
       <c r="B315" s="2" t="n">
@@ -4539,7 +4539,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>frt25891</t>
+          <t>frt25927</t>
         </is>
       </c>
       <c r="B316" s="2" t="n">
@@ -4552,7 +4552,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>frt25894</t>
+          <t>frt25893</t>
         </is>
       </c>
       <c r="B317" s="2" t="n">
@@ -4565,7 +4565,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>frt25921</t>
+          <t>frt25892</t>
         </is>
       </c>
       <c r="B318" s="2" t="n">
@@ -4578,7 +4578,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>frt23119</t>
+          <t>frt25926</t>
         </is>
       </c>
       <c r="B319" s="2" t="n">
@@ -4591,7 +4591,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>frt28167</t>
+          <t>frt25924</t>
         </is>
       </c>
       <c r="B320" s="2" t="n">
@@ -4604,7 +4604,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>frt26394</t>
+          <t>frt25925</t>
         </is>
       </c>
       <c r="B321" s="2" t="n">
@@ -4617,7 +4617,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>frt31697</t>
+          <t>frt25891</t>
         </is>
       </c>
       <c r="B322" s="2" t="n">
@@ -4630,7 +4630,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>frt23108</t>
+          <t>frt25894</t>
         </is>
       </c>
       <c r="B323" s="2" t="n">
@@ -4643,7 +4643,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>frt30891</t>
+          <t>frt25921</t>
         </is>
       </c>
       <c r="B324" s="2" t="n">
@@ -4656,7 +4656,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>frt35575</t>
+          <t>frt23119</t>
         </is>
       </c>
       <c r="B325" s="2" t="n">
@@ -4669,7 +4669,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>frt30946</t>
+          <t>frt28167</t>
         </is>
       </c>
       <c r="B326" s="2" t="n">
@@ -4682,7 +4682,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>frt30906</t>
+          <t>frt26394</t>
         </is>
       </c>
       <c r="B327" s="2" t="n">
@@ -4695,7 +4695,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>frt11736</t>
+          <t>frt31697</t>
         </is>
       </c>
       <c r="B328" s="2" t="n">
@@ -4708,7 +4708,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>frt29108</t>
+          <t>frt23108</t>
         </is>
       </c>
       <c r="B329" s="2" t="n">
@@ -4721,7 +4721,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>frt06350</t>
+          <t>frt30891</t>
         </is>
       </c>
       <c r="B330" s="2" t="n">
@@ -4734,7 +4734,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>frt05769</t>
+          <t>frt35575</t>
         </is>
       </c>
       <c r="B331" s="2" t="n">
@@ -4747,7 +4747,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>frt11438</t>
+          <t>frt30946</t>
         </is>
       </c>
       <c r="B332" s="2" t="n">
@@ -4760,7 +4760,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>frt05684</t>
+          <t>frt30906</t>
         </is>
       </c>
       <c r="B333" s="2" t="n">
@@ -4773,7 +4773,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>frt11514</t>
+          <t>frt11736</t>
         </is>
       </c>
       <c r="B334" s="2" t="n">
@@ -4786,7 +4786,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>frt11506</t>
+          <t>frt29108</t>
         </is>
       </c>
       <c r="B335" s="2" t="n">
@@ -4799,7 +4799,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>frt32804</t>
+          <t>frt06350</t>
         </is>
       </c>
       <c r="B336" s="2" t="n">
@@ -4812,7 +4812,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>frt10015</t>
+          <t>frt05769</t>
         </is>
       </c>
       <c r="B337" s="2" t="n">
@@ -4825,7 +4825,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>frt05864</t>
+          <t>frt11438</t>
         </is>
       </c>
       <c r="B338" s="2" t="n">
@@ -4838,7 +4838,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>frt09245</t>
+          <t>frt05684</t>
         </is>
       </c>
       <c r="B339" s="2" t="n">
@@ -4851,7 +4851,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>frt29207</t>
+          <t>frt11514</t>
         </is>
       </c>
       <c r="B340" s="2" t="n">
@@ -4864,7 +4864,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>frt11653</t>
+          <t>frt11506</t>
         </is>
       </c>
       <c r="B341" s="2" t="n">
@@ -4877,7 +4877,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>frt10114</t>
+          <t>frt32804</t>
         </is>
       </c>
       <c r="B342" s="2" t="n">
@@ -4890,7 +4890,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>frt11556</t>
+          <t>frt10015</t>
         </is>
       </c>
       <c r="B343" s="2" t="n">
@@ -4903,7 +4903,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>frt11524</t>
+          <t>frt05864</t>
         </is>
       </c>
       <c r="B344" s="2" t="n">
@@ -4916,7 +4916,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>frt11236</t>
+          <t>frt09245</t>
         </is>
       </c>
       <c r="B345" s="2" t="n">
@@ -4929,7 +4929,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>frt23106</t>
+          <t>frt29207</t>
         </is>
       </c>
       <c r="B346" s="2" t="n">
@@ -4942,7 +4942,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>frt30892</t>
+          <t>frt11653</t>
         </is>
       </c>
       <c r="B347" s="2" t="n">
@@ -4955,7 +4955,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>frt30912</t>
+          <t>frt10114</t>
         </is>
       </c>
       <c r="B348" s="2" t="n">
@@ -4968,7 +4968,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>frt14073</t>
+          <t>frt11556</t>
         </is>
       </c>
       <c r="B349" s="2" t="n">
@@ -4981,7 +4981,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>frt18507</t>
+          <t>frt11524</t>
         </is>
       </c>
       <c r="B350" s="2" t="n">
@@ -4994,7 +4994,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>frt21544</t>
+          <t>frt11236</t>
         </is>
       </c>
       <c r="B351" s="2" t="n">
@@ -5007,7 +5007,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>frt24972</t>
+          <t>frt23106</t>
         </is>
       </c>
       <c r="B352" s="2" t="n">
@@ -5020,7 +5020,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>frt07978</t>
+          <t>frt30892</t>
         </is>
       </c>
       <c r="B353" s="2" t="n">
@@ -5033,7 +5033,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>frt28587</t>
+          <t>frt30912</t>
         </is>
       </c>
       <c r="B354" s="2" t="n">
@@ -5046,7 +5046,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>frt10919</t>
+          <t>frt14073</t>
         </is>
       </c>
       <c r="B355" s="2" t="n">
@@ -5059,7 +5059,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>frt04640</t>
+          <t>frt18507</t>
         </is>
       </c>
       <c r="B356" s="2" t="n">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>frt05710</t>
+          <t>frt21544</t>
         </is>
       </c>
       <c r="B357" s="2" t="n">
@@ -5085,7 +5085,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>frt03610</t>
+          <t>frt24972</t>
         </is>
       </c>
       <c r="B358" s="2" t="n">
@@ -5098,7 +5098,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>frt06292</t>
+          <t>frt07978</t>
         </is>
       </c>
       <c r="B359" s="2" t="n">
@@ -5111,7 +5111,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>frt08742</t>
+          <t>frt28587</t>
         </is>
       </c>
       <c r="B360" s="2" t="n">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>frt28177</t>
+          <t>frt10919</t>
         </is>
       </c>
       <c r="B361" s="2" t="n">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>frt28178</t>
+          <t>frt04640</t>
         </is>
       </c>
       <c r="B362" s="2" t="n">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>frt28179</t>
+          <t>frt05710</t>
         </is>
       </c>
       <c r="B363" s="2" t="n">
@@ -5163,7 +5163,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>frt28181</t>
+          <t>frt03610</t>
         </is>
       </c>
       <c r="B364" s="2" t="n">
@@ -5176,7 +5176,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>frt28180</t>
+          <t>frt06292</t>
         </is>
       </c>
       <c r="B365" s="2" t="n">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>frt28182</t>
+          <t>frt08742</t>
         </is>
       </c>
       <c r="B366" s="2" t="n">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>frt30902</t>
+          <t>frt28177</t>
         </is>
       </c>
       <c r="B367" s="2" t="n">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>frt23102</t>
+          <t>frt28178</t>
         </is>
       </c>
       <c r="B368" s="2" t="n">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>frt11367</t>
+          <t>frt28179</t>
         </is>
       </c>
       <c r="B369" s="2" t="n">
@@ -5241,7 +5241,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>frt11366</t>
+          <t>frt28181</t>
         </is>
       </c>
       <c r="B370" s="2" t="n">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>frt27837</t>
+          <t>frt28180</t>
         </is>
       </c>
       <c r="B371" s="2" t="n">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>frt10020</t>
+          <t>frt28182</t>
         </is>
       </c>
       <c r="B372" s="2" t="n">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>frt22264</t>
+          <t>frt30902</t>
         </is>
       </c>
       <c r="B373" s="2" t="n">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>frt10021</t>
+          <t>frt23102</t>
         </is>
       </c>
       <c r="B374" s="2" t="n">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>frt10124</t>
+          <t>frt11367</t>
         </is>
       </c>
       <c r="B375" s="2" t="n">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>frt06278</t>
+          <t>frt11366</t>
         </is>
       </c>
       <c r="B376" s="2" t="n">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>frt06525</t>
+          <t>frt27837</t>
         </is>
       </c>
       <c r="B377" s="2" t="n">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>frt06277</t>
+          <t>frt10020</t>
         </is>
       </c>
       <c r="B378" s="2" t="n">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>frt37113</t>
+          <t>frt22264</t>
         </is>
       </c>
       <c r="B379" s="2" t="n">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>frt07945</t>
+          <t>frt10021</t>
         </is>
       </c>
       <c r="B380" s="2" t="n">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>frt29273</t>
+          <t>frt10124</t>
         </is>
       </c>
       <c r="B381" s="2" t="n">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>frt24852</t>
+          <t>frt06278</t>
         </is>
       </c>
       <c r="B382" s="2" t="n">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>frt07103</t>
+          <t>frt06525</t>
         </is>
       </c>
       <c r="B383" s="2" t="n">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>frt35576</t>
+          <t>frt06277</t>
         </is>
       </c>
       <c r="B384" s="2" t="n">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>frt36717</t>
+          <t>frt37113</t>
         </is>
       </c>
       <c r="B385" s="2" t="n">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>frt05216</t>
+          <t>frt07945</t>
         </is>
       </c>
       <c r="B386" s="2" t="n">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>frt04639</t>
+          <t>frt29273</t>
         </is>
       </c>
       <c r="B387" s="2" t="n">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>frt08701</t>
+          <t>frt24852</t>
         </is>
       </c>
       <c r="B388" s="2" t="n">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>frt05555</t>
+          <t>frt07103</t>
         </is>
       </c>
       <c r="B389" s="2" t="n">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>frt01903</t>
+          <t>frt35576</t>
         </is>
       </c>
       <c r="B390" s="2" t="n">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>frt30887</t>
+          <t>frt36717</t>
         </is>
       </c>
       <c r="B391" s="2" t="n">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>frt23117</t>
+          <t>frt04639</t>
         </is>
       </c>
       <c r="B392" s="2" t="n">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>frt20995</t>
+          <t>frt08701</t>
         </is>
       </c>
       <c r="B393" s="2" t="n">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>frt30890</t>
+          <t>frt05555</t>
         </is>
       </c>
       <c r="B394" s="2" t="n">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>frt11336</t>
+          <t>frt01903</t>
         </is>
       </c>
       <c r="B395" s="2" t="n">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>frt12267</t>
+          <t>frt30887</t>
         </is>
       </c>
       <c r="B396" s="2" t="n">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>frt08964</t>
+          <t>frt23117</t>
         </is>
       </c>
       <c r="B397" s="2" t="n">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>frt06518</t>
+          <t>frt20995</t>
         </is>
       </c>
       <c r="B398" s="2" t="n">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>frt11505</t>
+          <t>frt30890</t>
         </is>
       </c>
       <c r="B399" s="2" t="n">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>frt08608</t>
+          <t>frt11336</t>
         </is>
       </c>
       <c r="B400" s="2" t="n">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>frt06180</t>
+          <t>frt12267</t>
         </is>
       </c>
       <c r="B401" s="2" t="n">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>frt06904</t>
+          <t>frt08964</t>
         </is>
       </c>
       <c r="B402" s="2" t="n">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>frt05128</t>
+          <t>frt06518</t>
         </is>
       </c>
       <c r="B403" s="2" t="n">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>frt07482</t>
+          <t>frt11505</t>
         </is>
       </c>
       <c r="B404" s="2" t="n">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>frt06480</t>
+          <t>frt08608</t>
         </is>
       </c>
       <c r="B405" s="2" t="n">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>frt07586</t>
+          <t>frt06180</t>
         </is>
       </c>
       <c r="B406" s="2" t="n">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>frt09019</t>
+          <t>frt06904</t>
         </is>
       </c>
       <c r="B407" s="2" t="n">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>frt08980</t>
+          <t>frt05128</t>
         </is>
       </c>
       <c r="B408" s="2" t="n">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>frt12667</t>
+          <t>frt07482</t>
         </is>
       </c>
       <c r="B409" s="2" t="n">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>frt22425</t>
+          <t>frt06480</t>
         </is>
       </c>
       <c r="B410" s="2" t="n">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>frt06938</t>
+          <t>frt07586</t>
         </is>
       </c>
       <c r="B411" s="2" t="n">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>frt06849</t>
+          <t>frt09019</t>
         </is>
       </c>
       <c r="B412" s="2" t="n">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>frt30904</t>
+          <t>frt08980</t>
         </is>
       </c>
       <c r="B413" s="2" t="n">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>frt19681</t>
+          <t>frt12667</t>
         </is>
       </c>
       <c r="B414" s="2" t="n">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>frt37154</t>
+          <t>frt22425</t>
         </is>
       </c>
       <c r="B415" s="2" t="n">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>frt10075</t>
+          <t>frt06938</t>
         </is>
       </c>
       <c r="B416" s="2" t="n">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>frt04825</t>
+          <t>frt06849</t>
         </is>
       </c>
       <c r="B417" s="2" t="n">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>frt29632</t>
+          <t>frt30904</t>
         </is>
       </c>
       <c r="B418" s="2" t="n">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>frt29506</t>
+          <t>frt19681</t>
         </is>
       </c>
       <c r="B419" s="2" t="n">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>frt29638</t>
+          <t>frt37154</t>
         </is>
       </c>
       <c r="B420" s="2" t="n">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>frt31520</t>
+          <t>frt10075</t>
         </is>
       </c>
       <c r="B421" s="2" t="n">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>frt32071</t>
+          <t>frt04825</t>
         </is>
       </c>
       <c r="B422" s="2" t="n">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>frt11727</t>
+          <t>frt29632</t>
         </is>
       </c>
       <c r="B423" s="2" t="n">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>frt08383</t>
+          <t>frt29506</t>
         </is>
       </c>
       <c r="B424" s="2" t="n">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>frt08384</t>
+          <t>frt29638</t>
         </is>
       </c>
       <c r="B425" s="2" t="n">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>frt09449</t>
+          <t>frt31520</t>
         </is>
       </c>
       <c r="B426" s="2" t="n">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>frt09448</t>
+          <t>frt32071</t>
         </is>
       </c>
       <c r="B427" s="2" t="n">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>frt36545</t>
+          <t>frt11727</t>
         </is>
       </c>
       <c r="B428" s="2" t="n">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>frt36546</t>
+          <t>frt08383</t>
         </is>
       </c>
       <c r="B429" s="2" t="n">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>frt36523</t>
+          <t>frt08384</t>
         </is>
       </c>
       <c r="B430" s="2" t="n">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>frt36524</t>
+          <t>frt09449</t>
         </is>
       </c>
       <c r="B431" s="2" t="n">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>frt36525</t>
+          <t>frt09448</t>
         </is>
       </c>
       <c r="B432" s="2" t="n">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>frt36526</t>
+          <t>frt36545</t>
         </is>
       </c>
       <c r="B433" s="2" t="n">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>frt36527</t>
+          <t>frt36546</t>
         </is>
       </c>
       <c r="B434" s="2" t="n">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>frt36528</t>
+          <t>frt36523</t>
         </is>
       </c>
       <c r="B435" s="2" t="n">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>frt36529</t>
+          <t>frt36524</t>
         </is>
       </c>
       <c r="B436" s="2" t="n">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>frt36530</t>
+          <t>frt36525</t>
         </is>
       </c>
       <c r="B437" s="2" t="n">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>frt36531</t>
+          <t>frt36526</t>
         </is>
       </c>
       <c r="B438" s="2" t="n">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>frt36532</t>
+          <t>frt36527</t>
         </is>
       </c>
       <c r="B439" s="2" t="n">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>frt36533</t>
+          <t>frt36528</t>
         </is>
       </c>
       <c r="B440" s="2" t="n">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>frt36534</t>
+          <t>frt36529</t>
         </is>
       </c>
       <c r="B441" s="2" t="n">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>frt36535</t>
+          <t>frt36530</t>
         </is>
       </c>
       <c r="B442" s="2" t="n">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>frt36536</t>
+          <t>frt36531</t>
         </is>
       </c>
       <c r="B443" s="2" t="n">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>frt36537</t>
+          <t>frt36532</t>
         </is>
       </c>
       <c r="B444" s="2" t="n">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>frt36538</t>
+          <t>frt36533</t>
         </is>
       </c>
       <c r="B445" s="2" t="n">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>frt36539</t>
+          <t>frt36534</t>
         </is>
       </c>
       <c r="B446" s="2" t="n">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>frt36540</t>
+          <t>frt36535</t>
         </is>
       </c>
       <c r="B447" s="2" t="n">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>frt36541</t>
+          <t>frt36536</t>
         </is>
       </c>
       <c r="B448" s="2" t="n">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>frt36542</t>
+          <t>frt36537</t>
         </is>
       </c>
       <c r="B449" s="2" t="n">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>frt36543</t>
+          <t>frt36538</t>
         </is>
       </c>
       <c r="B450" s="2" t="n">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>frt36544</t>
+          <t>frt36539</t>
         </is>
       </c>
       <c r="B451" s="2" t="n">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>frt36522</t>
+          <t>frt36540</t>
         </is>
       </c>
       <c r="B452" s="2" t="n">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>frt23104</t>
+          <t>frt36541</t>
         </is>
       </c>
       <c r="B453" s="2" t="n">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>frt28232</t>
+          <t>frt36542</t>
         </is>
       </c>
       <c r="B454" s="2" t="n">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>frt07402</t>
+          <t>frt36543</t>
         </is>
       </c>
       <c r="B455" s="2" t="n">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>frt11170</t>
+          <t>frt36544</t>
         </is>
       </c>
       <c r="B456" s="2" t="n">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>frt23066</t>
+          <t>frt36522</t>
         </is>
       </c>
       <c r="B457" s="2" t="n">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>frt30885</t>
+          <t>frt23104</t>
         </is>
       </c>
       <c r="B458" s="2" t="n">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>frt25453</t>
+          <t>frt28232</t>
         </is>
       </c>
       <c r="B459" s="2" t="n">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>frt30898</t>
+          <t>frt07402</t>
         </is>
       </c>
       <c r="B460" s="2" t="n">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>frt27808</t>
+          <t>frt11170</t>
         </is>
       </c>
       <c r="B461" s="2" t="n">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>frt33533</t>
+          <t>frt23066</t>
         </is>
       </c>
       <c r="B462" s="2" t="n">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>frt30908</t>
+          <t>frt30885</t>
         </is>
       </c>
       <c r="B463" s="2" t="n">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>frt23107</t>
+          <t>frt25453</t>
         </is>
       </c>
       <c r="B464" s="2" t="n">
@@ -6476,7 +6476,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>frt04397</t>
+          <t>frt30898</t>
         </is>
       </c>
       <c r="B465" s="2" t="n">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>frt23109</t>
+          <t>frt33533</t>
         </is>
       </c>
       <c r="B466" s="2" t="n">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>frt23116</t>
+          <t>frt30908</t>
         </is>
       </c>
       <c r="B467" s="2" t="n">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>frt32783</t>
+          <t>frt23107</t>
         </is>
       </c>
       <c r="B468" s="2" t="n">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>frt06123</t>
+          <t>frt04397</t>
         </is>
       </c>
       <c r="B469" s="2" t="n">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>frt29573</t>
+          <t>frt23109</t>
         </is>
       </c>
       <c r="B470" s="2" t="n">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>frt11763</t>
+          <t>frt23116</t>
         </is>
       </c>
       <c r="B471" s="2" t="n">
@@ -6567,7 +6567,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>frt33063</t>
+          <t>frt32783</t>
         </is>
       </c>
       <c r="B472" s="2" t="n">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>frt33069</t>
+          <t>frt06123</t>
         </is>
       </c>
       <c r="B473" s="2" t="n">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>frt05134</t>
+          <t>frt29573</t>
         </is>
       </c>
       <c r="B474" s="2" t="n">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>frt13974</t>
+          <t>frt11763</t>
         </is>
       </c>
       <c r="B475" s="2" t="n">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>frt05953</t>
+          <t>frt33063</t>
         </is>
       </c>
       <c r="B476" s="2" t="n">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>frt32590</t>
+          <t>frt33069</t>
         </is>
       </c>
       <c r="B477" s="2" t="n">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>frt22229</t>
+          <t>frt05134</t>
         </is>
       </c>
       <c r="B478" s="2" t="n">
@@ -6658,7 +6658,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>frt18790</t>
+          <t>frt13974</t>
         </is>
       </c>
       <c r="B479" s="2" t="n">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>frt19333</t>
+          <t>frt05953</t>
         </is>
       </c>
       <c r="B480" s="2" t="n">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>frt01101</t>
+          <t>frt32590</t>
         </is>
       </c>
       <c r="B481" s="2" t="n">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>frt32122</t>
+          <t>frt22229</t>
         </is>
       </c>
       <c r="B482" s="2" t="n">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>frt32427</t>
+          <t>frt18790</t>
         </is>
       </c>
       <c r="B483" s="2" t="n">
@@ -6723,7 +6723,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>frt30935</t>
+          <t>frt19333</t>
         </is>
       </c>
       <c r="B484" s="2" t="n">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>frt31699</t>
+          <t>frt01101</t>
         </is>
       </c>
       <c r="B485" s="2" t="n">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>frt30936</t>
+          <t>frt32122</t>
         </is>
       </c>
       <c r="B486" s="2" t="n">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>frt08869</t>
+          <t>frt32427</t>
         </is>
       </c>
       <c r="B487" s="2" t="n">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>frt08310</t>
+          <t>frt30935</t>
         </is>
       </c>
       <c r="B488" s="2" t="n">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>frt30900</t>
+          <t>frt31699</t>
         </is>
       </c>
       <c r="B489" s="2" t="n">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>frt34604</t>
+          <t>frt30936</t>
         </is>
       </c>
       <c r="B490" s="2" t="n">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>frt23114</t>
+          <t>frt08869</t>
         </is>
       </c>
       <c r="B491" s="2" t="n">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>frt28493</t>
+          <t>frt08310</t>
         </is>
       </c>
       <c r="B492" s="2" t="n">
@@ -6840,7 +6840,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>frt24734</t>
+          <t>frt30900</t>
         </is>
       </c>
       <c r="B493" s="2" t="n">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>frt32784</t>
+          <t>frt34604</t>
         </is>
       </c>
       <c r="B494" s="2" t="n">
@@ -6866,7 +6866,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>frt28524</t>
+          <t>frt23114</t>
         </is>
       </c>
       <c r="B495" s="2" t="n">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>frt21204</t>
+          <t>frt28493</t>
         </is>
       </c>
       <c r="B496" s="2" t="n">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>frt23115</t>
+          <t>frt24734</t>
         </is>
       </c>
       <c r="B497" s="2" t="n">
@@ -6905,7 +6905,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>frt30947</t>
+          <t>frt32784</t>
         </is>
       </c>
       <c r="B498" s="2" t="n">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>frt32782</t>
+          <t>frt28524</t>
         </is>
       </c>
       <c r="B499" s="2" t="n">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>frt30909</t>
+          <t>frt21204</t>
         </is>
       </c>
       <c r="B500" s="2" t="n">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>frt32811</t>
+          <t>frt23115</t>
         </is>
       </c>
       <c r="B501" s="2" t="n">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>frt28175</t>
+          <t>frt30947</t>
         </is>
       </c>
       <c r="B502" s="2" t="n">
@@ -6970,7 +6970,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>frt28176</t>
+          <t>frt32782</t>
         </is>
       </c>
       <c r="B503" s="2" t="n">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>frt28727</t>
+          <t>frt30909</t>
         </is>
       </c>
       <c r="B504" s="2" t="n">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>frt07894</t>
+          <t>frt32811</t>
         </is>
       </c>
       <c r="B505" s="2" t="n">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>frt07896</t>
+          <t>frt28175</t>
         </is>
       </c>
       <c r="B506" s="2" t="n">
@@ -7022,7 +7022,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>frt09182</t>
+          <t>frt28176</t>
         </is>
       </c>
       <c r="B507" s="2" t="n">
@@ -7035,7 +7035,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>frt34409</t>
+          <t>frt28727</t>
         </is>
       </c>
       <c r="B508" s="2" t="n">
@@ -7048,7 +7048,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>frt04772</t>
+          <t>frt07894</t>
         </is>
       </c>
       <c r="B509" s="2" t="n">
@@ -7061,7 +7061,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>frt23202</t>
+          <t>frt07896</t>
         </is>
       </c>
       <c r="B510" s="2" t="n">
@@ -7074,7 +7074,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>frt04279</t>
+          <t>frt09182</t>
         </is>
       </c>
       <c r="B511" s="2" t="n">
@@ -7087,7 +7087,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>frt04249</t>
+          <t>frt34409</t>
         </is>
       </c>
       <c r="B512" s="2" t="n">
@@ -7100,7 +7100,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>frt32977</t>
+          <t>frt04772</t>
         </is>
       </c>
       <c r="B513" s="2" t="n">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>frt12266</t>
+          <t>frt23202</t>
         </is>
       </c>
       <c r="B514" s="2" t="n">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>frt04317</t>
+          <t>frt04279</t>
         </is>
       </c>
       <c r="B515" s="2" t="n">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>frt30503</t>
+          <t>frt04249</t>
         </is>
       </c>
       <c r="B516" s="2" t="n">
@@ -7152,7 +7152,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>frt04213</t>
+          <t>frt32977</t>
         </is>
       </c>
       <c r="B517" s="2" t="n">
@@ -7165,7 +7165,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>frt04072</t>
+          <t>frt12266</t>
         </is>
       </c>
       <c r="B518" s="2" t="n">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>frt35159</t>
+          <t>frt04317</t>
         </is>
       </c>
       <c r="B519" s="2" t="n">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>frt03927</t>
+          <t>frt30503</t>
         </is>
       </c>
       <c r="B520" s="2" t="n">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>frt20836</t>
+          <t>frt04213</t>
         </is>
       </c>
       <c r="B521" s="2" t="n">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>frt32362</t>
+          <t>frt04072</t>
         </is>
       </c>
       <c r="B522" s="2" t="n">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>frt23111</t>
+          <t>frt35159</t>
         </is>
       </c>
       <c r="B523" s="2" t="n">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>frt30993</t>
+          <t>frt03927</t>
         </is>
       </c>
       <c r="B524" s="2" t="n">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>frt30907</t>
+          <t>frt20836</t>
         </is>
       </c>
       <c r="B525" s="2" t="n">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>frt30911</t>
+          <t>frt32362</t>
         </is>
       </c>
       <c r="B526" s="2" t="n">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>frt23103</t>
+          <t>frt23111</t>
         </is>
       </c>
       <c r="B527" s="2" t="n">
@@ -7295,7 +7295,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>frt32174</t>
+          <t>frt30993</t>
         </is>
       </c>
       <c r="B528" s="2" t="n">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>frt26090</t>
+          <t>frt30907</t>
         </is>
       </c>
       <c r="B529" s="2" t="n">
@@ -7321,7 +7321,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>frt30268</t>
+          <t>frt30911</t>
         </is>
       </c>
       <c r="B530" s="2" t="n">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>frt28801</t>
+          <t>frt23103</t>
         </is>
       </c>
       <c r="B531" s="2" t="n">
@@ -7347,7 +7347,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>frt28525</t>
+          <t>frt32174</t>
         </is>
       </c>
       <c r="B532" s="2" t="n">
@@ -7360,7 +7360,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>frt05032</t>
+          <t>frt26090</t>
         </is>
       </c>
       <c r="B533" s="2" t="n">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>frt08502</t>
+          <t>frt28801</t>
         </is>
       </c>
       <c r="B534" s="2" t="n">
@@ -7386,7 +7386,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>frt08503</t>
+          <t>frt28525</t>
         </is>
       </c>
       <c r="B535" s="2" t="n">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>frt22427</t>
+          <t>frt05032</t>
         </is>
       </c>
       <c r="B536" s="2" t="n">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>frt04250</t>
+          <t>frt08502</t>
         </is>
       </c>
       <c r="B537" s="2" t="n">
@@ -7425,7 +7425,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>frt19611</t>
+          <t>frt08503</t>
         </is>
       </c>
       <c r="B538" s="2" t="n">
@@ -7438,7 +7438,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>frt08363</t>
+          <t>frt22427</t>
         </is>
       </c>
       <c r="B539" s="2" t="n">
@@ -7451,7 +7451,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>frt11453</t>
+          <t>frt04250</t>
         </is>
       </c>
       <c r="B540" s="2" t="n">
@@ -7464,7 +7464,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>frt22424</t>
+          <t>frt19611</t>
         </is>
       </c>
       <c r="B541" s="2" t="n">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>frt22572</t>
+          <t>frt08363</t>
         </is>
       </c>
       <c r="B542" s="2" t="n">
@@ -7490,7 +7490,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>frt07115</t>
+          <t>frt11453</t>
         </is>
       </c>
       <c r="B543" s="2" t="n">
@@ -7503,7 +7503,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>frt28273</t>
+          <t>frt22424</t>
         </is>
       </c>
       <c r="B544" s="2" t="n">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>frt30789</t>
+          <t>frt22572</t>
         </is>
       </c>
       <c r="B545" s="2" t="n">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>frt19009</t>
+          <t>frt28273</t>
         </is>
       </c>
       <c r="B546" s="2" t="n">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>frt06490</t>
+          <t>frt30789</t>
         </is>
       </c>
       <c r="B547" s="2" t="n">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>frt23120</t>
+          <t>frt19009</t>
         </is>
       </c>
       <c r="B548" s="2" t="n">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>frt30888</t>
+          <t>frt06490</t>
         </is>
       </c>
       <c r="B549" s="2" t="n">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>frt30910</t>
+          <t>frt23120</t>
         </is>
       </c>
       <c r="B550" s="2" t="n">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>frt06891</t>
+          <t>frt30888</t>
         </is>
       </c>
       <c r="B551" s="2" t="n">
@@ -7607,7 +7607,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>frt11335</t>
+          <t>frt30910</t>
         </is>
       </c>
       <c r="B552" s="2" t="n">
@@ -7620,7 +7620,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>frt29544</t>
+          <t>frt06891</t>
         </is>
       </c>
       <c r="B553" s="2" t="n">
@@ -7633,7 +7633,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>frt05859</t>
+          <t>frt11335</t>
         </is>
       </c>
       <c r="B554" s="2" t="n">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>frt32818</t>
+          <t>frt29544</t>
         </is>
       </c>
       <c r="B555" s="2" t="n">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>frt18863</t>
+          <t>frt05859</t>
         </is>
       </c>
       <c r="B556" s="2" t="n">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>frt28235</t>
+          <t>frt32818</t>
         </is>
       </c>
       <c r="B557" s="2" t="n">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>frt29721</t>
+          <t>frt18863</t>
         </is>
       </c>
       <c r="B558" s="2" t="n">
@@ -7698,7 +7698,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>frt05230</t>
+          <t>frt28235</t>
         </is>
       </c>
       <c r="B559" s="2" t="n">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>frt04313</t>
+          <t>frt29721</t>
         </is>
       </c>
       <c r="B560" s="2" t="n">
@@ -7724,7 +7724,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>frt26880</t>
+          <t>frt05230</t>
         </is>
       </c>
       <c r="B561" s="2" t="n">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>frt19053</t>
+          <t>frt04313</t>
         </is>
       </c>
       <c r="B562" s="2" t="n">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>frt35730</t>
+          <t>frt26880</t>
         </is>
       </c>
       <c r="B563" s="2" t="n">
@@ -7763,7 +7763,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>frt28275</t>
+          <t>frt19053</t>
         </is>
       </c>
       <c r="B564" s="2" t="n">
@@ -7776,7 +7776,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>frt11237</t>
+          <t>frt28275</t>
         </is>
       </c>
       <c r="B565" s="2" t="n">
@@ -7789,7 +7789,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>frt07571</t>
+          <t>frt11237</t>
         </is>
       </c>
       <c r="B566" s="2" t="n">
@@ -7802,7 +7802,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>frt30903</t>
+          <t>frt07571</t>
         </is>
       </c>
       <c r="B567" s="2" t="n">
@@ -7815,7 +7815,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>frt30785</t>
+          <t>frt30903</t>
         </is>
       </c>
       <c r="B568" s="2" t="n">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>frt30786</t>
+          <t>frt30785</t>
         </is>
       </c>
       <c r="B569" s="2" t="n">
@@ -7841,7 +7841,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>frt30787</t>
+          <t>frt30786</t>
         </is>
       </c>
       <c r="B570" s="2" t="n">
@@ -7854,7 +7854,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>frt30788</t>
+          <t>frt30787</t>
         </is>
       </c>
       <c r="B571" s="2" t="n">
@@ -7867,7 +7867,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>frt30901</t>
+          <t>frt30788</t>
         </is>
       </c>
       <c r="B572" s="2" t="n">
@@ -7880,7 +7880,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>frt23110</t>
+          <t>frt30901</t>
         </is>
       </c>
       <c r="B573" s="2" t="n">
@@ -7893,7 +7893,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>frt31517</t>
+          <t>frt23110</t>
         </is>
       </c>
       <c r="B574" s="2" t="n">
@@ -7906,7 +7906,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>frt20399</t>
+          <t>frt31517</t>
         </is>
       </c>
       <c r="B575" s="2" t="n">
@@ -7919,7 +7919,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>frt14437</t>
+          <t>frt20399</t>
         </is>
       </c>
       <c r="B576" s="2" t="n">
@@ -7932,7 +7932,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>frt09954</t>
+          <t>frt14437</t>
         </is>
       </c>
       <c r="B577" s="2" t="n">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>frt06922</t>
+          <t>frt09954</t>
         </is>
       </c>
       <c r="B578" s="2" t="n">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>frt18865</t>
+          <t>frt06922</t>
         </is>
       </c>
       <c r="B579" s="2" t="n">
@@ -7971,7 +7971,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>frt18982</t>
+          <t>frt18865</t>
         </is>
       </c>
       <c r="B580" s="2" t="n">
@@ -7984,7 +7984,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>frt04857</t>
+          <t>frt18982</t>
         </is>
       </c>
       <c r="B581" s="2" t="n">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>frt18885</t>
+          <t>frt04857</t>
         </is>
       </c>
       <c r="B582" s="2" t="n">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>frt06937</t>
+          <t>frt18885</t>
         </is>
       </c>
       <c r="B583" s="2" t="n">
@@ -8023,7 +8023,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>frt11695</t>
+          <t>frt06937</t>
         </is>
       </c>
       <c r="B584" s="2" t="n">
@@ -8036,7 +8036,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>frt07242</t>
+          <t>frt11695</t>
         </is>
       </c>
       <c r="B585" s="2" t="n">
@@ -8049,7 +8049,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>frt30856</t>
+          <t>frt07242</t>
         </is>
       </c>
       <c r="B586" s="2" t="n">
@@ -8062,7 +8062,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>frt31364</t>
+          <t>frt30856</t>
         </is>
       </c>
       <c r="B587" s="2" t="n">
@@ -8075,7 +8075,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>frt06679</t>
+          <t>frt31364</t>
         </is>
       </c>
       <c r="B588" s="2" t="n">
@@ -8088,7 +8088,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>frt24617</t>
+          <t>frt06679</t>
         </is>
       </c>
       <c r="B589" s="2" t="n">
@@ -8101,7 +8101,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>frt24187</t>
+          <t>frt24617</t>
         </is>
       </c>
       <c r="B590" s="2" t="n">
@@ -8114,7 +8114,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>frt21032</t>
+          <t>frt24187</t>
         </is>
       </c>
       <c r="B591" s="2" t="n">
@@ -8127,7 +8127,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>frt08801</t>
+          <t>frt21032</t>
         </is>
       </c>
       <c r="B592" s="2" t="n">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>frt08802</t>
+          <t>frt08801</t>
         </is>
       </c>
       <c r="B593" s="2" t="n">
@@ -8153,7 +8153,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>frt18743</t>
+          <t>frt08802</t>
         </is>
       </c>
       <c r="B594" s="2" t="n">
@@ -8166,7 +8166,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>frt31518</t>
+          <t>frt18743</t>
         </is>
       </c>
       <c r="B595" s="2" t="n">
@@ -8179,7 +8179,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>frt24792</t>
+          <t>frt31518</t>
         </is>
       </c>
       <c r="B596" s="2" t="n">
@@ -8192,7 +8192,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>frt24390</t>
+          <t>frt24792</t>
         </is>
       </c>
       <c r="B597" s="2" t="n">
@@ -8205,7 +8205,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>frt03794</t>
+          <t>frt24390</t>
         </is>
       </c>
       <c r="B598" s="2" t="n">
@@ -8218,7 +8218,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>frt29546</t>
+          <t>frt03794</t>
         </is>
       </c>
       <c r="B599" s="2" t="n">
@@ -8231,7 +8231,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>frt29730</t>
+          <t>frt29546</t>
         </is>
       </c>
       <c r="B600" s="2" t="n">
@@ -8244,7 +8244,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>frt30895</t>
+          <t>frt29730</t>
         </is>
       </c>
       <c r="B601" s="2" t="n">
@@ -8257,7 +8257,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>frt07176</t>
+          <t>frt30895</t>
         </is>
       </c>
       <c r="B602" s="2" t="n">
@@ -8270,7 +8270,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>frt03841</t>
+          <t>frt07176</t>
         </is>
       </c>
       <c r="B603" s="2" t="n">
@@ -8283,7 +8283,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>frt09003</t>
+          <t>frt03841</t>
         </is>
       </c>
       <c r="B604" s="2" t="n">
@@ -8296,7 +8296,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>frt09288</t>
+          <t>frt09003</t>
         </is>
       </c>
       <c r="B605" s="2" t="n">
@@ -8309,7 +8309,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>frt28357</t>
+          <t>frt09288</t>
         </is>
       </c>
       <c r="B606" s="2" t="n">
@@ -8322,7 +8322,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>frt06986</t>
+          <t>frt28357</t>
         </is>
       </c>
       <c r="B607" s="2" t="n">
@@ -8335,7 +8335,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>frt31557</t>
+          <t>frt06986</t>
         </is>
       </c>
       <c r="B608" s="2" t="n">
@@ -8348,7 +8348,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>frt22593</t>
+          <t>frt31557</t>
         </is>
       </c>
       <c r="B609" s="2" t="n">
@@ -8361,7 +8361,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>frt08874</t>
+          <t>frt22593</t>
         </is>
       </c>
       <c r="B610" s="2" t="n">
@@ -8374,7 +8374,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>frt24665</t>
+          <t>frt08874</t>
         </is>
       </c>
       <c r="B611" s="2" t="n">
@@ -8387,7 +8387,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>frt29279</t>
+          <t>frt24665</t>
         </is>
       </c>
       <c r="B612" s="2" t="n">
@@ -8400,7 +8400,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>frt05152</t>
+          <t>frt29279</t>
         </is>
       </c>
       <c r="B613" s="2" t="n">
@@ -8413,7 +8413,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>frt05709</t>
+          <t>frt05152</t>
         </is>
       </c>
       <c r="B614" s="2" t="n">
@@ -8426,7 +8426,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>frt03283</t>
+          <t>frt05709</t>
         </is>
       </c>
       <c r="B615" s="2" t="n">
@@ -8439,7 +8439,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>frt03282</t>
+          <t>frt03283</t>
         </is>
       </c>
       <c r="B616" s="2" t="n">
@@ -8452,7 +8452,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>frt05265</t>
+          <t>frt03282</t>
         </is>
       </c>
       <c r="B617" s="2" t="n">
@@ -8465,7 +8465,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>frt07406</t>
+          <t>frt05265</t>
         </is>
       </c>
       <c r="B618" s="2" t="n">
@@ -8478,7 +8478,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>frt08546</t>
+          <t>frt07406</t>
         </is>
       </c>
       <c r="B619" s="2" t="n">
@@ -8491,7 +8491,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>frt07509</t>
+          <t>frt08546</t>
         </is>
       </c>
       <c r="B620" s="2" t="n">
@@ -8504,7 +8504,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>frt08653</t>
+          <t>frt07509</t>
         </is>
       </c>
       <c r="B621" s="2" t="n">
@@ -8517,7 +8517,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>frt26734</t>
+          <t>frt08653</t>
         </is>
       </c>
       <c r="B622" s="2" t="n">
@@ -8530,7 +8530,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>frt26710</t>
+          <t>frt26734</t>
         </is>
       </c>
       <c r="B623" s="2" t="n">
@@ -8543,7 +8543,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>frt18700</t>
+          <t>frt26710</t>
         </is>
       </c>
       <c r="B624" s="2" t="n">
@@ -8556,7 +8556,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>frt26706</t>
+          <t>frt18700</t>
         </is>
       </c>
       <c r="B625" s="2" t="n">
@@ -8569,7 +8569,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>frt13975</t>
+          <t>frt26706</t>
         </is>
       </c>
       <c r="B626" s="2" t="n">
@@ -8582,7 +8582,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>frt14476</t>
+          <t>frt13975</t>
         </is>
       </c>
       <c r="B627" s="2" t="n">
@@ -8595,7 +8595,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>frt11730</t>
+          <t>frt14476</t>
         </is>
       </c>
       <c r="B628" s="2" t="n">
@@ -8608,7 +8608,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>frt11731</t>
+          <t>frt11730</t>
         </is>
       </c>
       <c r="B629" s="2" t="n">
@@ -8621,7 +8621,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>frt24429</t>
+          <t>frt11731</t>
         </is>
       </c>
       <c r="B630" s="2" t="n">
@@ -8634,7 +8634,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>frt29008</t>
+          <t>frt24429</t>
         </is>
       </c>
       <c r="B631" s="2" t="n">
@@ -8647,7 +8647,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>frt28989</t>
+          <t>frt29008</t>
         </is>
       </c>
       <c r="B632" s="2" t="n">
@@ -8660,7 +8660,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>frt28864</t>
+          <t>frt28989</t>
         </is>
       </c>
       <c r="B633" s="2" t="n">
@@ -8673,7 +8673,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>frt18672</t>
+          <t>frt28864</t>
         </is>
       </c>
       <c r="B634" s="2" t="n">
@@ -8686,7 +8686,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>frt28990</t>
+          <t>frt18672</t>
         </is>
       </c>
       <c r="B635" s="2" t="n">
@@ -8699,13 +8699,26 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
+          <t>frt28990</t>
+        </is>
+      </c>
+      <c r="B636" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="C636" s="2" t="n">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
           <t>frt04831</t>
         </is>
       </c>
-      <c r="B636" s="2" t="n">
-        <v>43983</v>
-      </c>
-      <c r="C636" s="2" t="n">
+      <c r="B637" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="C637" s="2" t="n">
         <v>44166</v>
       </c>
     </row>
